--- a/tests/test_inputs/pears/Action_Plans_Export.xlsx
+++ b/tests/test_inputs/pears/Action_Plans_Export.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="212">
   <si>
     <t>Action Plans Export</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Exported by</t>
   </si>
   <si>
-    <t>Nightly Export User (Don't Edit!) on 10/14/2022 at 03:07:27 AM</t>
+    <t>Nightly Export User (Don't Edit!) on 10/17/2022 at 03:07:13 AM</t>
   </si>
   <si>
     <t>Filters</t>
@@ -37,7 +37,7 @@
     <t>Organization = University of Illinois Extension</t>
   </si>
   <si>
-    <t>reporting_periods = SNAP-Ed 2022 (October 1, 2021 - September 30, 2022)</t>
+    <t>reporting_periods = Extension 2023 (October 1, 2022 - September 30, 2023), SNAP-Ed 2023 (October 1, 2022 - September 30, 2023)</t>
   </si>
   <si>
     <t>Notes</t>
@@ -76,6 +76,9 @@
     <t>state_action_plan_title</t>
   </si>
   <si>
+    <t>reporting_periods_extension_2023</t>
+  </si>
+  <si>
     <t>state</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t>Linked State Action Plan title</t>
   </si>
   <si>
+    <t>1=Yes, 0=No; Indicates whether or not this Action Plan is related to Reporting Period: Extension 2023 (October 1, 2022 - September 30, 2023)</t>
+  </si>
+  <si>
     <t>State in which the organization exists</t>
   </si>
   <si>
@@ -220,6 +226,792 @@
     <t>Date the Action Plan record was last modified</t>
   </si>
   <si>
+    <t>RCES/ OWG/</t>
+  </si>
+  <si>
+    <t>Community:  Involvement and Leadership (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Community: Connectedness &amp;  Inclusion (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Economy: Economic Vitality (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Economy: Financial Wellbeing (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Economy: Workforce Preparedness/Advancement (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Food: Food Access (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Food: Food Safety (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Food: Food Production (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Environment: Engagement with Home and Community Landscapes and Environment (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Environment: Enhancing and Preserving Natural Resources (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Health: Chronic Disease Prevention and Management (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Health: Social and Emotional Health (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>Health: Healthy and Safe Environments (State - 2022-2023)</t>
+  </si>
+  <si>
+    <t>All About Fireflies and Citizen Science</t>
+  </si>
+  <si>
+    <t>Economy: Workforce Preparedness/Advancement (State - 2022-2023) (Copy)</t>
+  </si>
+  <si>
+    <t>Health: Social and Emotional Health (State - 2022-2023) (Copy)</t>
+  </si>
+  <si>
+    <t>Community:  Involvement and Leadership (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Community: Connectedness &amp;  Inclusion (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Economy: Economic Vitality (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Economy: Financial Wellbeing (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Economy: Workforce Preparedness/Advancement (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Food: Food Access (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Food: Food Safety (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Food: Food Production (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Environment: Engagement with Home and Community Landscapes and Environment (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Environment: Enhancing and Preserving Natural Resources (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Health: Chronic Disease Prevention and Management (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Health: Social and Emotional Health (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Health: Healthy and Safe Environments (State - 2021-2022)</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>University of Illinois Extension</t>
+  </si>
+  <si>
+    <t>Kirby Hunt</t>
+  </si>
+  <si>
+    <t>Beth Welbes</t>
+  </si>
+  <si>
+    <t>Gail DeVilbiss, Christina Lueking</t>
+  </si>
+  <si>
+    <t>April Littig</t>
+  </si>
+  <si>
+    <t>Gail DeVilbiss</t>
+  </si>
+  <si>
+    <t>kirbyh@illinois.edu</t>
+  </si>
+  <si>
+    <t>echamb@illinois.edu</t>
+  </si>
+  <si>
+    <t>devilbis@illinois.edu</t>
+  </si>
+  <si>
+    <t>littig@illinois.edu</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>SNAP-Ed</t>
+  </si>
+  <si>
+    <t>4H Youth Development, Administration, Agriculture and Agribusiness, Agriculture and Natural Resources, Community and Economic Development, Cook County Initiative, Family Consumer Science, Integrated Health Disparities, Natural Resources, Environment, and Energy</t>
+  </si>
+  <si>
+    <t>4H Youth Development, Administration, Agriculture and Agribusiness, Agriculture and Natural Resources, Community and Economic Development, Cook County Initiative, EFNEP, Family Consumer Science, Integrated Health Disparities, Natural Resources, Environment, and Energy, SNAP-Ed</t>
+  </si>
+  <si>
+    <t>Natural Resources, Environment, and Energy</t>
+  </si>
+  <si>
+    <t>4H Youth Development, Community and Economic Development, Family Consumer Science</t>
+  </si>
+  <si>
+    <t>4H Youth Development</t>
+  </si>
+  <si>
+    <t>Unit 25 (District)</t>
+  </si>
+  <si>
+    <t>Illinois - University of Illinois Extension (Implementing Agency)</t>
+  </si>
+  <si>
+    <t>Unit 23 (District)</t>
+  </si>
+  <si>
+    <t>Unit 15 (District)</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An overview of economic activity in the State of Illinois demonstrates the increasing importance of small business and entrepreneurship as drivers of the state’s economy. At 4.6%, the April 2017 unemployment rate in Illinois is the 35th highest among states (Bureau of Labor Statistics). After the national recession, more people became self-employed, due to job losses and the slow recovery of the state’s economy. Given that in Illinois, businesses with 99 or fewer employees support 59.3% of total jobs (as of 2015), it is fair to state that small business is driving the Illinois economy (source: [University of Wisconsin Division for Business and Entrepreneurship](http://www.youreconomy.org/profile/index.ye)). According to the Small Business Administration, small businesses created 19,000 net jobs in 2013. All this to say that the potential for increased employment in Illinois is likely to be through the development of small business enterprises, and the increased employment of young workers who are prepared for employment after high school. Places with high business development activity tend to be attractive for reasons beyond the economy, including good schools, attractive residential areas, good government, and recreation options. It’s not just a matter of starting a business, but preparing to weather economic upheavals, natural disasters, and challenges of ownership succession. After a disaster, 40% of businesses do not reopen, and another 25% fail within one year, according to the Federal Emergency Management Agency (FEMA). Similar statistics from the United States Small Business Administration indicate that over 90% of businesses fail within two years after being struck by a disaster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The National Association of Colleges and Employers reports (Job Outlook 2015) that in addition to looking at a student’s GPA, employers look for the following characteristics: ability to work in a team, leadership, communication skills (written), problem-solving skills, and a strong work ethic. According to a poll released in June 2008 by the Society for Human Resource Management (SHRM), many workplace soft skills have become more important for the experienced professional. These skills include critical thinking/problem solving, leadership, professionalism/work ethic, teamwork/collaboration, and adaptability/flexibility. Forty-four percent of the executives surveyed by Adecco ([Adecco State of the Economy and Employment Survey](http://pages.adeccousa.com/rs/adeccousa/images/2014-mind-the-skills-gap.pdf)) think Americans are lacking soft skills – communication, creativity, collaboration, critical thinking, etc., and 92% acknowledge that there is a serious gap in workforce skills. Thus, while candidates may look good “on paper,” they don’t know how to effectively work within a team or in an office. Teamwork and problem-solving are essential to organizations striving to keep pace with technological change. ["Racing With and Against the Machine: Changes in Occupational Skill Composition in an Era of Rapid Technological Advance"](https://pdfs.semanticscholar.org/164e/93f0d99852a2b8474c9c0c902eb00807a379.pdf) reminds us that closing the skill gap is not a static effort. This research paper’s Abstract concludes; “The remarkable scale and scope of occupational skill changes that we document just since 2006 portend even bigger changes in the coming years.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To improve diet quality and increase physical activity
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communities face a host of issues that demand involvement and ultimately, leadership, in the midst of increasing complexity. Community organizations and political subdivisions such as cities, school districts, library boards, and counties struggle to find qualified residents to serve as council, board and commission members, and it is critical that leaders understand external forces that affect the community. It is equally important to provide opportunities for youth to engage with adults, lending a youth voice and perspective to community decision-making and enabling youth to affect and influence others through their actions and ideas.
+Challenges facing communities include the devolution of authority for action and service delivery to the community; the double bind created by trying to maintain quality and services with fewer resources; expectations for sharing power and responsibility; interdependence, diversity, collaboration, and communication. Building leadership capacity among community leaders and elected officials is critical to community viability and sustainability. Through public and private nonprofit organizations, communities achieve their objectives and increase or maintain the quality of life for all residents.
+Communities need assistance in identifying strategies to address the rapidly changing social and economic landscape. Communities need assistance to understand each other, to navigate the differences found in any community no matter the size with that understanding leading to a sense of being part of the community. With that increased connection between individual and community, people are poised to take an active role in community affairs by analyzing and addressing quality of life and infrastructure issues. Some people will rise to the occasion and provide leadership for community programs.
+Both adults and youth have a role to play in addressing these issues. Each of these groups has a different working style based on the generation they represent. Effective leaders must know how to work with individuals from all generations, socioeconomic backgrounds and gender. The quality of information available to community decision makers and public and private non-profit organizations has a significant effect on the vitality of communities. Increasing the capacity of local decision-makers in the areas of communication, decision-making, teamwork, and learning-management will enhance community vitality and improve the quality of life in rural and urban areas. Research shows that youth who engage in their communities become adults who are actively engaged.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In our culture, we tend to apply the word "community" to almost any collection of individuals regardless of how poorly those individuals communicate with each other. If we are going to use the word meaningfully, we must restrict it to those groups who have learned how to communicate honestly with each other and who have developed some commitment to "make others' conditions our own." (M. Scott Peck, The Different Drum: Community Making and Peace)
+A community is a familiar thread used to bring people together to advocate and support each other in the fight to overcome those threats. As human beings, we need a sense of belonging, and that sense of belonging is what connects us to the many relationships we develop.
+Demographic shifts in America are having a profound effect on communities and the nature of age relations. The "graying of America" is narrowing the gap between the percentage of older adults and children/youth in the total U.S. population. By 2030, these groups will be roughly the same in size; each will comprise about 22% of the population. In addition, racial and ethnic diversity is continuing to increase. African American, Hispanic/Latino, Native American, and Asian American youth collectively will constitute the majority of young people by 2030 while over 70% of the older adult population will be White. Socioeconomic status also continues to drive disparities in health, living conditions, and social structures the comprise communities.
+Perceptions of older adults and youth as problems prevent us from mobilizing these groups as valuable resources who can support each other and contribute to their communities. In addition, stress on families is increasing as members of different ages try to support each other in these tough economic times. New policies and practices are needed that intentionally foster a sense of generational interdependence, promote lifelong contribution, and bring resources together to improve the quality of life for community members of ALL ages. According to AARP's Framework for Isolation in Adults over 50 (May 2012), an estimated one in five adults over the age of 50 are affected by isolation; this is roughly eight million Americans. As people get older, their likelihood of living alone only increases. Additionally, more adults and older do not have children, reports the AARP.
+Isolated people have been found to have higher rates of chronic health conditions such as heart disease as well as a weakened immune system. Those who are lonely are more likely to suffer from depression and anxiety. They are also more likely to use emergency services and be admitted to nursing homes. Research also shows that social engagement is good for brain health, therefore lack of social engagement may lead to a higher risk of developing Alzheimer's or another form of dementia.
+Research suggests that children who have few friends, whom the peer group actively rejects, or who are victims of bullying are unlikely to have the cognitive and emotional resources to be able to do well in school. Bullying is a pervasive problem affecting school-age children, and efforts to reduce bullying concern policy makers, administrators and educators. According to a nationwide survey, 19.6% of 9th to 12th graders were bullied on school property in 2013; 22.2% of high school students in Illinois reported being bullied.
+**Assumptions**:
+* Extension has the capacity to develop and deliver research-based information in the specific area
+* Community connectedness is a necessary step leading toward increased community involvement and leadership – thus contributing to stronger communities.
+* Individual differences can create barriers to healthy relationships and interactions needed for a strong community
+* Individual differences can contribute to experiences of frustration, isolation and risk leading to civil discourse. Not everyone wants to be actively connected in the community
+**External Factors**:
+* Financial resources of the community
+* Level of personal safety
+* Level of personal motivation
+* Organization processes of communication
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An overview of economic activity in the State of Illinois demonstrates the increasing importance of small business and entrepreneurship as drivers of the state’s economy.  The potential for increased employment in Illinois is likely to be through the development of small business enterprises, and the increased employment of young workers who are prepared for employment after high school. Places with high business development activity tend to be attractive for reasons beyond the economy. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Illinois, residents are ill prepared financially for the future. Illinois ranks 49th out of 50 states for bankruptcy filing. A survey by the Employee Benefit Research Institute found that only 22% of American workers are confident they will have enough money for retirement and 64% report knowing they are behind in what they should be saving for retirement (MarksJarvis, 2015). Poverty is still a major concern in Illinois despite years on economic growth. Financial hardship and lack of preparedness for unexpected life events contribute to families’ difficult financial times. Through University of Illinois Extension efforts in financial literacy, families can be better prepared to manage financial resources.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to Illinois Data Trends (2016), since 2008, underemployment rates and unemployment rates in Illinois are leveling out. While more individuals are graduating with a college degree, employers are having difficulty filling jobs due to the skills gap. At the same time, fewer are prepared for the jobs that are available. Underemployment and lack of available workers contribute to the economic viability of families, businesses, and communities across Illinois.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access of healthy food (10 miles from a grocery store in rural areas and one mile in urban areas) has a major influence on overall health and well-being of individuals and families. One in five Illinoisans has low access to food and recent reports identify 270,353 Illinoisans live in food deserts. Many families facing food access issues may also be facing issues of limited transportation, limited financial resources, and other realities of poverty.
+Extension is armed to address the issue of food access at the individual, community/organizational, and policy levels. Through Extension’s multi-disciplinary team members and extensive volunteer base, Extension is positioned to reach a broad and diverse group of stakeholders to address this issue.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois is one of the worst states for food borne illness ranking 46th out of all 50 states, accounting for 6.1% of all outbreaks in the country. As more local foods and community garden foods make their way into the supply chain, it will be critical to maintaining a safe food system.
+Training in current research-based food and supply chain safety methods is a critical area of opportunity for Extension. Extension is well positioned to conduct ongoing research to manage new issues that continue to emerge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois needs a 70% increase in production to meet the global demand for food by 2050. Food production accounts for 6% of Illinois jobs. It is critical for producers to employ sound business management and marketing skills and adopt technological advances to meet growing demands. A more diverse food system is necessary to enhance production, profitability, and management. Incorporating pest and nutrient management best practices allows producers to safely and efficiently increase food production. Research conducted at the University of Illinois affords Extension the opportunity to positively impact food production and employment thus increasing the economic viability of the state.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 90% of Illinois residents live in metropolitan areas, putting them in close proximity to residential and urban landscapes.   The characteristics of green spaces in these areas impact air quality, water quality, local and global climate, as well as having wellness and economic impacts documented in the health and community focus areas.
+Effective landscaping choices in and around the built environment can improve environmental quality in several ways.  According to the EPA, heat islands, or built up areas that are hotter than their surroundings, increase energy use and costs, air pollution, greenhouse gas emissions, heat-related illness, and water quality.   They recommend increasing tree and vegetation cover as a mitigation strategy that has other positive effects as well.   
+Similarly, the EPA has identified urban stormwater management as a key issue affecting water pollution, energy use, and climate.   Home and landscape-based solutions including rain gardens, rain collection systems, and other strategies can reduce stormwater runoff and absorb harmful pollutants, as well as reduce the energy use associated with pumping and filtration.    
+Stephen Jay Gould said, “We cannot win this battle to save species and environments without forging an emotional bond between ourselves and nature as well – for we will not fight to save what we do not love”. Researchers assert that if humans feel a part of nature and are more connected to nature, they will feel a responsibility to care for nature and protect it. Feeling connected to nature decreases the likelihood that people will harm it because harming nature would be similar to harming oneself.  
+Illinois Extension programs targeted for gardeners, citizens interested in engagement with nature, and green industry promote positive engagement with growing things and support increased plant health, home environmental stewardship, and environmentally beneficial landscape design for home landscapes, community parks, and other greenscapes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural resources in Illinois face conditions that impact the environmental and economic health of the state. Soil erosion and nutrient run-off detrimentally affect both soil health and water quality. Approximately 400 million pounds of nitrate-nitrogen and 38 million pounds of phosphorus from Illinois fields, streets, factories and wastewater treatment plants flow into the Mississippi River each year, while 20% of Illinois crop fields exceeded the tolerable levels of erosion and 12% experienced ephemeral erosion in 2015. Wetlands are extremely effective at removing excess nutrients from water, but Illinois has experienced more wetlands loss than most states. Approximately 918,000 acres of natural wetlands remain in Illinois, of which only 5,000 acres are undisturbed. Restoring wetlands is a top conservation priority.  
+Invasive species place agricultural and natural resources at risk. Invasive flora and fauna impose an enormous economic burden on the United States, estimated at $137
+billion/year, and constitute the second leading cause of species endangerment and recent extinctions. Sixty-two percent of Illinois’ wildlife species in greatest need of conservation are threatened, at least in part, by invasive species. Invasive species negatively affect multiple native flora and fauna species, and interfere with natural ecosystem processes resulting in the fragmentation, destruction, alteration or complete replacement of habitats leading to a cascading effect in the environment. Invasive species also cause grave medical problems, and damage human enterprises and ecosystems.  Pollinator decline is primarily attributed to loss of habitat and native food sources, but pollution, chemical misuse, disease, and changes in climatic patterns also contribute to shrinking and shifting pollinator populations. Climate trends from the last 30 years show a likelihood that Illinois will experience warmer averages in all seasons, wetter winters, and more frequent heavy precipitation events. Threats to forestlands and natural resources include the decline of Oak dominance, changing forest landscape, decreased forest health, decline of state forestry professionals, and decline of the forest industry in general.  
+Renewable energy plays an important role in reducing greenhouse gas emissions, and flexible, strong, and smart grids play a crucial role in the integration of variable renewable energy. Smart grid technologies offer new options for integrating variable renewable energy. Landfill waste in Illinois is approximately 20% higher than the national average; industrial, commercial, and institutional waste represent 37% of total solid waste while residential represents 35%. On average, Illinois residents produce 2,088 pounds of garbage per year compared to the average American of 1,751 pounds of garbage per year. Increased recycling efforts can have a positive economic and environmental impact in Illinois. Recycling and reuse activities in the United States accounted for 757,000 jobs, $37 billion in wages, and 7 billion in tax revenues in 2007.
+Illinois DNR manages 324 state-owned and leased state parks, fish and wildlife areas, state forests, and related sites, which realize more than 45 million visits annually. These sites contribute nearly $1 billion in visitor spending and support 8,500 jobs. Natural parks and areas need maintenance and citizen engagement to facilitate continued use.  University of Illinois Extension environment programs help preserve and expand Illinois’ natural resources by promoting actions which preserve soil health, improve air and water quality, protect wetlands, mitigate climate change, promote recycling and renewable energy, control invasive species, support state parks, and provide habitat for pollinators and wildlife. These programs will help public and private organizations, citizens, municipalities, and volunteers preserve and enhance nature and protect our state’s natural resources. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic diseases are the leading causes of death and disability in the United States. 
+* Seven of every 10 deaths are caused by them.
+* About 86% of our annual health care spending is related to chronic disease.
+* As of 2012, about half of all adults—117 million people—have one or more chronic health conditions. One in four adults has two or more chronic health conditions.
+* About 1 of every 4 people with chronic diseases cannot perform one or more daily activities.
+* The average American child spends 44 hours a week (more than 6 hours a day) staring at some kind of electronic screen. Since the mid-90’s, obesity among children aged 6 to 11 more than doubled, while it has tripled for adults. An estimated 50% of the US population does not get the recommended amount of daily activity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social emotional well-being is essential to overall health. Positive mental health allows people to realize their full potential, cope with the stresses of life, work productively, and make meaningful contributions to their communities. Research shows many factors contribute to positive mental health including engagement with nature, practicing mindfulness techniques, etc.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health and wellness are influenced by the places in which people live, learn, work, and play. Communities, including homes, schools, public spaces, and work sites, can be transformed to support well-being and make healthy choices easy and affordable. Healthy and safe community environments include those with clean air and water, affordable and secure housing, sustainable and economically vital neighborhoods, and supportive structures (e.g., violence-free places to be active).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When people volunteer or advocate for a local issue, they see themselves as part of the solution and their community pride soars. Providing decision-makers with practical, timely, and research-based information gives leaders the tools they need to strengthen their communities and improve the quality of life in rural and urban areas throughout Illinois.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A strong sense of community brings people together to support each other in times of need and growth. Accepting and celebrating differences creates an environment where all voices are important and heard. When strong networks of peers and organizations support youth and families, even the most vulnerable community members feel they belong and are valued.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economically resilient communities are built on a solid foundation with plans for growth, plans for responding to emergencies and disasters, and innovative approaches to promote economic vitality. With 75% of the state devoted to farmland, agricultural operations, both large and small, represent a critically important contributor to the economic vitality of Illinois’ local and state economy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial instability can negatively affect physical, mental, and social health and can ultimately lead to bankruptcy. Illinois Extension supports financial wellbeing tools for all ages and stages which helps improve self-sufficiency, reduces the need for communities to provide support services, and creates opportunities for individuals to protect and build wealth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The global pandemic has reinforced that there is an ongoing need for Illinois to develop innovative ways to nurture its workforce through career exploration, training and re-training programs, and other opportunities for refining skills of the current workforce and the workforce of the future. Having a prepared, skilled, and resilient workforce in place ultimately increases tax revenue for the state.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research shows a strong link between food insecurity, poor health, and even poor academic outcomes for children. Food insecurity is not just about hunger. It’s about not having access to food options that meet nutritional needs, which is particularly important for individuals and families with limited resources. Extension’s network of volunteers and partners work together to address food insecurity in locally relevant ways.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodborne illnesses cost society an estimated $36 billion annually, with an average cost of $3,630 per illness. Food safety is challenged everywhere from the field to the kitchen. Safe growing, handling, and preservation practices can help reduce the social and economic impact of foodborne illness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whether large commercial agriculture operations, small farms, or community and backyard gardens, the future of our food supply relies on use of practices that boost production and capacity. Growers at all levels benefit from effective, efficient, and sustainable approaches to cultivating produce, crops, and livestock that feed their families, communities, and the world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is growing evidence that time spent around plants and in green spaces has many benefits including improved health, better interpersonal relationships, and a higher quality of life. Sustainable home landscapes also increase property values and build stronger ecosystems for plants and wildlife. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The survival of our planet depends on the quality of our water, land, and air. These shared resources must be managed through sustainable practices that support ecological balance. We must take steps now to effectively steward these resources for generations to come.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More than half of Illinois adults have a known chronic health condition, in part due to risky health behaviors, according to the Illinois Department of Public Health. People of all ages need trusted and reliable research-based information to make health decisions that improve their quality of life. Creative solutions are needed to assure that these supports are available when and where people need them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even before the global pandemic’s new social, economic, and life challenges, mental health was a growing concern. Illinois residents of all ages and walks of life need to know where to turn for resources to help cope with the daily stressors that threaten mental health and wellbeing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal health decisions are not made in a vacuum.  We must create environments where healthy choices are not only possible but are also encouraged. Classrooms, school cafeterias, food pantries, workplaces, and other built environments play an important role in promoting health and safety.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activities:
+* 4-H Teen Leadership Competency-Based Programs (Teen Teachers, Teen Planners, Teen Mentors, Teen Advocates, Teen Advisers, and Teen Promoters)
+* Community Matters
+* Community Survey Tool
+* Customized Planning Processes
+* Data for Decision Makers
+* HCE Program
+* Leadership Academy (UCCI)
+* Local Government Education
+* Legislative Connection / Speaking for Illinois 4-H
+Participation:
+* Community Organization boards
+* Government Officials
+* Community Leaders
+* Neighborhood Associations
+* Community Development Organizations
+* Businesses
+* Non-Profits
+* Youth
+* Community Members
+* Media
+* Schools
+* Faith-based Organizations
+* Policy makers
+* Youth serving organizations
+* Families
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Activities:**
+* 4-H We Connect
+* Age Matters
+* Bullying Programs
+* Diversity, Equity, and Inclusion programming and initiatives
+* Poverty Simulation
+* Real Colors
+* Navigating Difference (targeted toward audiences external to UIE)
+** **
+**Participation(Audiences):**
+* Participants across the lifespan
+* Agencies
+* Decision Makers
+* Customers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Activities**
+* Annie’s Project
+* Hemp production programs
+* Initiatives to Support Local Food systems
+* Building Entrepreneurial Communities
+* Community Planning
+* Community Survey Tool
+* Developing a Creative Economy
+* Disaster Planning
+* Sustainable Communities
+* Youth Entrepreneurship
+**Participation**
+* Private sector businesses
+* Small business owners/farmers
+* Local governments
+* Non-profit organizations
+* Municipal leaders
+* County elected officiials
+* Future community leaders (youth and adults)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activities:
+* All My Money
+* Financial Wellbeing for Seniors
+* Financial Wellness for College Students
+* Get Savvy – financial series for young adults
+* Money Mentors
+* Plan Well Retire Well
+Participation:
+* Individuals facing financial challenges
+* Schools
+* Youth / 4-H
+* Social Service Agencies and Non-Profits
+* Lending institutions
+* Employers
+* Schools
+* Government Officials
+* Community Leaders
+* Community Coalitions
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activities:
+* 4-H DIY Make &amp;amp; Build (STEM)
+* 4-H Quads Away/Drones (STEM)
+* 4-H Embryology and Incubation (STEM)
+* 4-H eSports (STEM)
+* 4-H Juntos (College/Career)
+* 4-H Perfect Pitch
+* 4-H Makers (STEM)
+* 4-H Ready 4 Work
+* 4-H Robotics (STEM)
+* 4-H Welcome to the Real World
+* 4-H SLAAY
+* 4-H Winning in Life
+* Continuing Education for K-12 Teachers - for improving STEM or SEL practices (and alignment with learning standards)
+* Customer Service Training
+* On the Front Line
+* STEM Training/Education
+* Youth Entrepreneurship
+Participation:
+* School-aged Youth
+* Individuals entering College
+* Individuals preparing for the workforce
+* Displaced Workers 
+* Clients/Customers wishing to advance their careers
+* Agencies supporting workforce preparation and advancement
+* Teachers and other school personnel
+* Community development councils
+* County Board
+* Local elected officials
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Activities:**
+* 4-H Feeding and Growing Our Communities
+* 4-H Food Action Academy
+* Coalition/Policy Work (Food Access Coalitions)
+* Community food donation gardens
+* Community leader training specific to Food Access
+* Community Planning/Local Food Systems (CED – SF/LF, SNAP-Ed)
+* Farm to Venue (SNAP Ed)
+* Food access research and demonstration
+* Food Distribution Programs
+* Food Insecurity Screening Technical Assistance
+* Food Recovery/Gleaning Systems
+* Grant writing assistance for Food Access initiatives
+* Summer Meals/School Meals (SNAP Ed)
+* Think Global – Eat Local video
+* Establish/Promote Mobile/Farmers Markets
+* Growing Together Illinois (formerly GIFAA)
+* Vegetable garden training and plant distribution for underserved audiences
+**Target Participation:**
+* Individuals facing food access issues
+* Small Farmers
+* Urban Ag Producers
+* Commercial Ag Research/Producers
+* Gardeners
+* Gardening Groups
+* 4-Hers/4-H Clubs
+* Social Service Agencies
+* Schools/Child Care Facilities
+* Food Pantries/Food Banks
+* Government Officials
+* Community Leaders
+* Community Coalitions
+* Philanthropists
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Activities**: 
+* Certified Food Protection Manager Training
+* Cottage Food Programming
+* Food Handler Training/Serve it Safely
+* Food Preservation Programs
+* Kitchen Food Handling programs
+* Farm Safety Days
+* Food Safety and Modernization Act training (Produce Safety Alliance Grower Training)
+* Food safety research and demonstration
+**Participation**:
+* Consumers
+* Food Business Entrepreneurs
+* Food Service Personnel
+* Farmers/ Direct marketers
+* Schools
+* Early Childhood Centers
+* Community Gardeners
+* Food Producers
+* Food Serving Organizations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Activities**
+* 4-H Ag in the Classroom Teen Teacher Program
+* 4-H Cover Crops
+* AgrAbility
+* Areawide pest monitoring
+* Beef Field Days
+* Beef Quality Assurance training
+* Continuing Education for Certified Crop Advisers
+* Crop scouting programs
+* 4-H Dig It &amp;amp; Dig It Jr
+* Driftless Area Beef Conference
+* Expert assistance provided through email, phone, and face to face contacts
+* farmdoc/farmdoc daily
+Field Demonstration days * Food Production research &amp;amp; demonstration
+* Four State Dairy Nutrition &amp;amp; Management Conference
+* Illiana Vegetable Growers Symposium
+* Illinois Cattle Feeders Meeting
+* Illinois Crop Management Conferences
+* Illinois Horseradish Growers Conference
+* Illinois Performance-tested Bull Sale
+* Illinois Specialty Crops Conference
+* Jr Master Gardeners
+* 4-H Little Roots
+* Master Urban Farmer Training Program
+* Pesticide Safety Education Program (PSEP)--Commercial applicator training
+* Pesticide Safety Education Program (PSEP)--Private applicator training
+* Plant Clinic
+* Small Farm Webinar series
+* Southern Illinois Beef Conference
+* Southern Illinois Fruit and Vegetable School
+* Southwest Illinois Tree Fruit School
+* Stateline Fruit and Vegetable Conference
+* 4-H Unlocking Ag Innovations
+* Winter Beef/Calf Meeting
+**Participation**
+*Participants/Stakeholders*
+* General Public and special populations
+* Homeowners, residents, gardeners
+* Youth
+*Clients/Stakeholders*
+* Commercial farmers
+* Small scale farmers &amp;amp; Urban agriculture
+* Livestock Producers
+* Ag professionals including Certified Crop Advisors
+*Agencies*
+* Department of Ag
+* EPA
+* NRCS
+* Other NGO’s
+* SWCD
+* Farm Bureau
+*Decision-makers*
+* Government
+* Agencies
+* Regulatory agencies
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Activities:**
+* 4-H Overnight Camping
+* Beekeeping Training 
+* Community Survey Tool
+* Community Gardens
+* Conservation@Home/Conservation@School
+* Four Seasons Gardening
+* Gateway Green Industry Conference
+* Horticulture Answer Desks
+* Illinois Master Gardener Program
+* IPM for Green Industry
+* JJK Youth Horticulture programs
+* Junior Master Gardener Program
+* Little Roots
+* Pesticide Safety Education Program (PSEP)--Commercial applicator training
+* Plant Clinic
+* Rainscaping Education programs
+* Saturday Gardening Days
+* School garden workshop series
+* Take home kits and curricula
+* Urban Tree Conference
+* Water Smart Gardening
+**Strategies:**
+Develop and deliver curriculum, resources and distance education
+Expert assistance through email, phone and face to face contacts
+Newsletters
+Partner/Collaborate
+Research and demonstration
+Social and mass media information
+Workshops, meetings, and trainings
+**Participants:**
+* Landowners
+* Legislators
+* Volunteers
+* Citizens
+* Schools
+* Organizations
+* Societies
+* Private sector
+* Businesses
+* Municipal
+* Leaders/Local
+* Government
+* Grass Root
+* Organizations
+* Local &amp;amp; State Parks
+* Forest Preserve Districts
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Activities**:
+* 4-H Birds
+* 4-H Renewable Energy Wind and Solar Fun
+* 4-H Sport Fishing &amp;amp; Outdoor Adventures
+* 4-H Trees &amp;amp; Forestry
+* 4-H Water Quality (Rain to Drain)
+* 4-H Jr Master Naturalists
+* Advanced Soil Health Training
+* Certified Livestock Manager Training
+* Citizen Scientists
+* Community Planning
+* Community Surveys
+* Cook County composting initiative 
+* Emerging/Invasive Species Surveys
+* Everyday Environment series
+* Expert assistance provided through email, phone, and face to face contacts
+* Illinois Extension Smart Grid Outreach
+* Illinois Indigenous Plants Symposium
+* Illinois Invasive Species Symposium
+* Illinois Master Naturalist Program
+* I-Pollinate citizen science program
+* Nutrient Loss Reduction Strategy programs
+* Pollinator Programs, including Honeybee Challenge
+* Renewable Energy / Bioenergy
+* Safety and Woods Worker Training
+* Stewardship Days/Conservation Days
+* Sustainable Communities
+* Timber Sales &amp;amp; Timber Marketing in IL
+* Tri-State Forestry conference
+* Wildlife Programs, including Nature Detectives and Discover Birds
+**Participants:**
+* Landowners
+* Legislators
+* Volunteers
+* Citizens
+* Schools
+* Organizations
+* Societies
+* Private sector
+* Businesses
+* Municipal Leaders – Local Government
+* Grass Root Organizations
+* Local &amp;amp; State Parks
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Activities**:
+* 4-H Cooking 101 Cooking Schools
+* 4-H Food Challenge
+* 4-H Health Jam
+* Brain Health Programs
+* Chronic Disease Self-Management Programs
+* Diabetes Self-Management Program
+* EFNEP direct education programs
+* Food Preparation Programs
+* Healthy Food Selection Programs
+* Heart Health Programs
+* IL Junior Chef
+* Keys to Embracing Aging
+* Matter of Balance
+* SNAP-Ed direct education programs
+* Worksite Wellness Series/Healthy Living Series
+**Participation**:
+-Individuals with chronic conditions
+-Individuals caring for those with chronic conditions
+-Employee groups
+-Special interest groups
+-Youth
+-Low income parents with children
+-SNAP Eligible families
+-Low income youth
+Partners:
+-Schools
+-Early Childhood Centers
+-Social Service Agencies
+-Park and Recreation Centers
+-Health Care Providers/Facilities
+-Elderly Care
+-Libraries
+-Businesses
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Activities:**
+* 4-H Be SAFE
+* 4-H Club Projects
+* 4-H Health Rocks!
+* 4-H Your Thoughts Matter
+* Caregiving Programs
+* Continuing Education for Early Childhood Program Staff - academic/school readiness
+* Life Story Writing Series
+* Living Well
+* Mindfulness Programs
+* Nature Journaling/ Benefits of Nature
+* Social/Emotional Programs for Life Stages
+* Therapeutic Gardening
+**Participation:**
+* Youth
+* Parents
+* Older Adults
+* Veterans
+* At Risk Target Audiences
+* Teachers
+* Youth Leaders
+* Caregivers
+* Master Gardeners/Master Naturalist
+* Health Care Providers
+* Schools
+* Work Place
+* Libraries
+* Afterschool Programs
+* Senior Care Facilities
+* Senior Centers
+* Park and Recreation
+* Forest Preserve
+* Health Care Facilities
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Activities:**
+* Community Health Assessments
+* Continuing Education for Early Childhood Program Staff - for improving safe, healthy, and inclusive learning environments
+* Continuing Education for K-12 Teachers and food service staff- for improving safe, healthy, and inclusive learning environments
+* Food Waste (school plate waste)
+* Grant writing assistance
+* Health Coalition/Policy Work
+* SNAP-Ed Environmental Assessments
+* Technical Assistance for adopting Healthy Environment Best Practices
+**Participation:**
+* Schools
+* Food Pantries/Food Banks
+* Early Childhood Centers
+* Community Coalitions
+* Health Departments
+* Social Service Agencies
+* Non - Profits
+* Local Government
+* Food Retailers
+* Local Development Councils
+* Local Food Councils
+* Teen Ambassadors/Volunteers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activities:
+* 4-H Ready 4 Work
+* 4-H Robotics (STEM)
+* 4-H Welcome to the Real World
+Participation:
+* School-aged Youth
+* Individuals entering College
+* Individuals preparing for the workforce
+* Displaced Workers 
+* Agencies supporting workforce preparation and advancement
+* Teachers and other school personnel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Activities:**
+* 4-H Be SAFE
+* 4-H Club Projects
+* 4-H Health Rocks!
+**Participation:**
+* Youth
+* Parents
+* At Risk Target Audiences
+* Teachers
+* Youth Leaders
+* Schools
+* Libraries
+* Afterschool Programs
+* Park and Recreation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An educational video was viewed by unit 23 Master Naturalists.  We reviewed how we can assist in monitoring the Number of species present.  Several members will add this Citizen Science project to the upcoming years programs.  
+</t>
+  </si>
+  <si>
     <t>Collaborators</t>
   </si>
   <si>
@@ -247,6 +1039,18 @@
     <t>Description of user's contributions to this Action Plan</t>
   </si>
   <si>
+    <t>Christina Lueking</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>present at program for support</t>
+  </si>
+  <si>
     <t>Outcome Indicators</t>
   </si>
   <si>
@@ -296,12 +1100,64 @@
   </si>
   <si>
     <t>Denominator to be compared to if this indicator expects quantitative evidence</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By reading the stories, getting to know the characters ,asking and answering questions, the kids want to do what the characters in the stories do, eat healthy and exercise! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They will learn why these organs are important to their health and  want to care for their bodies and share their knowledge with friends and family 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That everyone of them has organs inside their body and each organ has a job to do
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Increased number of participants reporting new leadership roles and opportunities undertaken
+* Increased number of volunteer hours (level of involvement)
+* Increased number of programs / initiatives that are volunteer-led
+* Increased citizen attendance at local government meetings
+* Increased voter participation in elections
+* Demonstrate the dollar value of the volunteer contributions based on Independent Sector hour pay value
+* Increased number of community and organizational plans developed
+* Increased youth participation on community boards and committees
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+* Decrease instances of food borne illness.
+* Decrease number of workdays missed due to unsafe food practices.
+* Decrease recalls for unsafe food
+</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Learning different types of healthy foods and the food groups, more open to trying new foods, participating more in grocery shopping. being more physical active&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;They will put knowledge to use such as, drinking more milk, and water because they have learned it is healthy for their bones, muscles, and teeth.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;To learn what some of their bodies organs are and the jobs they do&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy hh:mm"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -362,12 +1218,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,7 +1519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -740,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -748,7 +1605,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -756,7 +1613,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -764,7 +1621,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -772,7 +1629,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -780,7 +1637,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -788,7 +1645,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -796,7 +1653,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -804,7 +1661,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -812,7 +1669,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -820,7 +1677,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -828,7 +1685,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -836,7 +1693,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -844,7 +1701,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -852,7 +1709,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -860,7 +1717,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -868,7 +1725,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -876,7 +1733,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -884,7 +1741,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -892,7 +1749,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -900,7 +1757,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -908,7 +1765,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -916,7 +1773,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -924,7 +1781,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -932,7 +1789,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -940,7 +1797,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -948,129 +1805,137 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>40</v>
+      <c r="A46" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>40</v>
+      <c r="A53" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B62" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1080,42 +1945,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="75.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="33.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="75.7109375" customWidth="1"/>
+    <col min="16" max="16" width="65.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="75.7109375" customWidth="1"/>
+    <col min="21" max="21" width="75.7109375" customWidth="1"/>
+    <col min="22" max="22" width="75.7109375" customWidth="1"/>
+    <col min="23" max="23" width="75.7109375" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" customWidth="1"/>
+    <col min="25" max="25" width="75.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1">
+    <row r="1" spans="1:28" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1196,6 +2062,1294 @@
       </c>
       <c r="AA1" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2">
+        <v>20001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>44581.36465277777</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>44581.40378472222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3">
+        <v>21104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>18343</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>21104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P3" t="s">
+        <v>118</v>
+      </c>
+      <c r="R3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" t="s">
+        <v>142</v>
+      </c>
+      <c r="W3" t="s">
+        <v>155</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>44835.47832175926</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>44835.54690972222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4">
+        <v>21105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>18374</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>21105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" t="s">
+        <v>118</v>
+      </c>
+      <c r="R4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>130</v>
+      </c>
+      <c r="V4" t="s">
+        <v>143</v>
+      </c>
+      <c r="W4" t="s">
+        <v>156</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>44835.48221064815</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>44835.54702546296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5">
+        <v>21106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>18438</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <v>21106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5" t="s">
+        <v>123</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V5" t="s">
+        <v>144</v>
+      </c>
+      <c r="W5" t="s">
+        <v>157</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>44835.48399305555</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>44835.54707175926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6">
+        <v>21107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>18439</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>21107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" t="s">
+        <v>123</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>132</v>
+      </c>
+      <c r="V6" t="s">
+        <v>145</v>
+      </c>
+      <c r="W6" t="s">
+        <v>158</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>44835.48519675926</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>44835.54711805555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7">
+        <v>21108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>18440</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>21108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R7" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" t="s">
+        <v>133</v>
+      </c>
+      <c r="V7" t="s">
+        <v>146</v>
+      </c>
+      <c r="W7" t="s">
+        <v>159</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>44835.48662037037</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>44835.54715277778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8">
+        <v>21109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>18442</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8">
+        <v>21109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R8" t="s">
+        <v>124</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" t="s">
+        <v>147</v>
+      </c>
+      <c r="W8" t="s">
+        <v>160</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>44835.48898148148</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>44835.54729166667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9">
+        <v>21110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>18443</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9">
+        <v>21110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" t="s">
+        <v>118</v>
+      </c>
+      <c r="R9" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>135</v>
+      </c>
+      <c r="V9" t="s">
+        <v>148</v>
+      </c>
+      <c r="W9" t="s">
+        <v>161</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>44835.52539351852</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>44835.54738425926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10">
+        <v>21111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>18444</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>21111</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s">
+        <v>118</v>
+      </c>
+      <c r="R10" t="s">
+        <v>124</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>136</v>
+      </c>
+      <c r="V10" t="s">
+        <v>149</v>
+      </c>
+      <c r="W10" t="s">
+        <v>162</v>
+      </c>
+      <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>44835.52637731482</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>44835.54734953704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11">
+        <v>21112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>18445</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11">
+        <v>21112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" t="s">
+        <v>118</v>
+      </c>
+      <c r="R11" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>137</v>
+      </c>
+      <c r="V11" t="s">
+        <v>150</v>
+      </c>
+      <c r="W11" t="s">
+        <v>163</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>44835.5283449074</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>44835.54719907408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12">
+        <v>21113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>18446</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12">
+        <v>21113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" t="s">
+        <v>118</v>
+      </c>
+      <c r="R12" t="s">
+        <v>125</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>138</v>
+      </c>
+      <c r="V12" t="s">
+        <v>151</v>
+      </c>
+      <c r="W12" t="s">
+        <v>164</v>
+      </c>
+      <c r="X12">
+        <v>3</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>44835.5297337963</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>44835.54723379629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13">
+        <v>21114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>18447</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13">
+        <v>21114</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" t="s">
+        <v>118</v>
+      </c>
+      <c r="R13" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V13" t="s">
+        <v>152</v>
+      </c>
+      <c r="W13" t="s">
+        <v>165</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>44835.53137731482</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>44835.54743055555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14">
+        <v>21115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>18448</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14">
+        <v>21115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" t="s">
+        <v>118</v>
+      </c>
+      <c r="R14" t="s">
+        <v>121</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>140</v>
+      </c>
+      <c r="V14" t="s">
+        <v>153</v>
+      </c>
+      <c r="W14" t="s">
+        <v>166</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>44835.53256944445</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>44835.54751157408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15">
+        <v>21116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15">
+        <v>18449</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15">
+        <v>21116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" t="s">
+        <v>102</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" t="s">
+        <v>118</v>
+      </c>
+      <c r="R15" t="s">
+        <v>121</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>141</v>
+      </c>
+      <c r="V15" t="s">
+        <v>154</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>44835.53368055556</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>44835.54746527778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16">
+        <v>21289</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16">
+        <v>21113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" t="s">
+        <v>119</v>
+      </c>
+      <c r="R16" t="s">
+        <v>125</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>44846.65885416666</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>44846.66523148148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17">
+        <v>21304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17">
+        <v>21108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17">
+        <v>21108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" t="s">
+        <v>123</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>127</v>
+      </c>
+      <c r="U17" t="s">
+        <v>133</v>
+      </c>
+      <c r="V17" t="s">
+        <v>146</v>
+      </c>
+      <c r="W17" t="s">
+        <v>168</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>44848.47222222222</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>44848.47378472222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18">
+        <v>21305</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>21115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18">
+        <v>21115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
+        <v>140</v>
+      </c>
+      <c r="V18" t="s">
+        <v>153</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>44848.47401620371</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>44848.47496527778</v>
       </c>
     </row>
   </sheetData>
@@ -1205,17 +3359,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -1223,16 +3377,271 @@
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>20001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>21104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>21105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>21106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>21107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>21108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>21109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>21110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>21111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>21112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>21113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>21114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>21115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>21116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>21289</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>21289</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>21304</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>21305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +3651,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1252,9 +3661,9 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="75.7109375" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="29.7109375" customWidth="1"/>
   </cols>
@@ -1264,28 +3673,152 @@
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>84</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>20001</v>
+      </c>
+      <c r="B2">
+        <v>40548</v>
+      </c>
+      <c r="C2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2">
+        <v>40548</v>
+      </c>
+      <c r="G2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>20001</v>
+      </c>
+      <c r="B3">
+        <v>40547</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3">
+        <v>40547</v>
+      </c>
+      <c r="G3" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>20001</v>
+      </c>
+      <c r="B4">
+        <v>40546</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4">
+        <v>40546</v>
+      </c>
+      <c r="G4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>21104</v>
+      </c>
+      <c r="B5">
+        <v>42250</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5">
+        <v>42414</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>21110</v>
+      </c>
+      <c r="B6">
+        <v>42269</v>
+      </c>
+      <c r="C6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6">
+        <v>42433</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
